--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s1_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1415.247577587892</v>
+        <v>1839.060030442771</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.4975775878919</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.174190424042935</v>
+        <v>13.44641299045078</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.174190424042935</v>
+        <v>10.68883997447806</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>900.6200000000001</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.13</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -744,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -791,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -868,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -918,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>25.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.83564378328381</v>
+        <v>16.55358700954922</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.38544255344478</v>
+        <v>18.1553984840992</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>2.71773803005367</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>5.206834251576655</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.68569098426262</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -974,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1034,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1048,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1062,15 +1073,169 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -1184,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
@@ -1195,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10">
@@ -1206,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11">
@@ -1217,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -1228,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.43999999999971</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1239,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53499999999971</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1250,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.36999999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -1261,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81499999999971</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -1272,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.83499999999971</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1283,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>81.05499999999913</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -1294,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>83.09999999999999</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
@@ -1305,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -1316,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>76.23999999999913</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -1327,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>77.71999999999913</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -1338,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>147.5549999999996</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1349,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>148.7099999999996</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1360,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>135.4199999999996</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1371,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>146.2849999999996</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1382,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>144.3549999999996</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1393,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>133.4550000000001</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1404,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>124.2550000000001</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1415,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>126.0350000000001</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -1426,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>135.4400000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -1437,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>139.2600000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -1448,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>115.6100000000003</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
@@ -1459,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>113.5950000000003</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
@@ -1470,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>115.2400000000003</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35">
@@ -1481,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>111.4400000000003</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
@@ -1492,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>113.6550000000003</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37">
@@ -1503,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>147.5549999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1514,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>148.7099999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1525,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>135.4199999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1536,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>146.2849999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1547,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3549999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1558,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>133.4550000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1569,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>124.2550000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1580,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>126.0350000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1591,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>135.4400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1602,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>139.2600000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6100000000003</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
@@ -1660,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5950000000003</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
@@ -1671,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15.24000000000029</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -1682,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4400000000003</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -1693,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>13.65500000000029</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
@@ -1704,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>47.55499999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1715,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.70999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1726,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>35.41999999999965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1737,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>46.28499999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1748,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>44.35499999999962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1759,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>33.45500000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1770,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>24.25500000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1781,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>26.03500000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1792,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>35.44000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1803,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>39.26000000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1861,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1872,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1883,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1894,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1905,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1916,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1927,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1938,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1949,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1960,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1971,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1982,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1993,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2004,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2015,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2026,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -2037,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -2048,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2059,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -2070,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -2081,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -2092,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -2103,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2114,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2375,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2221,7 +2386,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2232,7 +2397,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2243,7 +2408,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2254,7 +2419,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2265,7 +2430,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2276,7 +2441,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2287,7 +2452,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2298,7 +2463,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2309,7 +2474,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
